--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1711671.916531884</v>
+        <v>1709126.730458598</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.0463248722758</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>183.8819774006277</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>190.2713935802968</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>144.8294691548012</v>
+        <v>184.9067641147202</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>61.32905684098937</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>200.9914957443038</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>113.696979544097</v>
+        <v>145.9375346245469</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819418</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>134.3542165280278</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>105.9893107372995</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>104.7950049175963</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>97.98413062224057</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.01360035611859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,10 +2767,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>247.2924896597634</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>98.72106119200248</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>41.02686156550261</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>212.4076860934771</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428527</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>202.9133247598012</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>176.5196562849271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>123.9815576456784</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1722.185086336931</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>1722.185086336931</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1722.185086336931</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1336.396833738687</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>925.4109289490796</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>507.4471208472664</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>180.2524008832693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312743</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y2" t="n">
-        <v>1722.185086336931</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,40 +4492,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>535.9356573576496</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>308.6274700262513</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>2091.914583926164</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>1722.952066985752</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005402</v>
+        <v>1364.686368379002</v>
       </c>
       <c r="E5" t="n">
-        <v>764.6872557005402</v>
+        <v>978.8981157807573</v>
       </c>
       <c r="F5" t="n">
-        <v>353.7013509109326</v>
+        <v>567.9122109911498</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>2478.514423990286</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>863.7645169313848</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>66.99035954353295</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>165.9557701207388</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>569.4228831407843</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1122.236141386983</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1753.953952370295</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2381.261620430142</v>
       </c>
       <c r="O8" t="n">
         <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2662.164970996628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2279.3275164129</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1948.264629069329</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1595.495973799215</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1222.030215538135</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1441.490579173192</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>685.6734330002731</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>516.7372500723662</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4996,16 +4996,16 @@
         <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>939.0322293967829</v>
+        <v>906.4660121438033</v>
       </c>
       <c r="W10" t="n">
-        <v>649.6150593598222</v>
+        <v>906.4660121438033</v>
       </c>
       <c r="X10" t="n">
-        <v>421.6255084618049</v>
+        <v>906.4660121438033</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>685.6734330002731</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2311.25175375397</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135318</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.1082042373</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.31562509377</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5270,10 +5270,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5282,7 +5282,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5291,13 +5291,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407056</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171305</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892237</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>564.5188827892237</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>564.5188827892237</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>417.6289352913133</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6078,7 +6078,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>214.9229991561132</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>710.248605371872</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622266</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343197</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219839</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395908</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="F31" t="n">
-        <v>302.4540366416804</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2579373565604</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>929.7309773356194</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356194</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,13 +6953,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>372.4964262156759</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>867.8220324314346</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612593</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400749</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C37" t="n">
-        <v>344.917417812168</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.38585385471</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648823</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611862</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138447</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703146</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7500,10 +7500,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7640,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>91.6954932393849</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8465,7 +8465,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>378.0407240669644</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>83.05123379926047</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>180.5336875992915</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>55.21102825632967</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>181.7279934189947</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>42.31058222398332</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51053793615026</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>4.845153664064611</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>46.69998683092876</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>99.26785128072125</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>13.30196929556007</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409392708</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>83.27114962944293</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016433</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>24.63391537253398</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
@@ -26344,16 +26344,16 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="N2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="O2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808063</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682737</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682746</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682737</v>
-      </c>
       <c r="H4" t="n">
-        <v>5677.536566682736</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682723</v>
+        <v>5677.536566682758</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682736</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682753</v>
       </c>
       <c r="N4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="O4" t="n">
-        <v>5677.536566682719</v>
-      </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-349072.2223292028</v>
+        <v>-349072.222329203</v>
       </c>
       <c r="C6" t="n">
         <v>240895.656885342</v>
       </c>
       <c r="D6" t="n">
-        <v>85091.85079154692</v>
+        <v>85091.85079154684</v>
       </c>
       <c r="E6" t="n">
-        <v>-353207.467972892</v>
+        <v>-353242.205898328</v>
       </c>
       <c r="F6" t="n">
-        <v>417845.2234079142</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="G6" t="n">
-        <v>417845.223407914</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="H6" t="n">
-        <v>417845.223407914</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="I6" t="n">
-        <v>417845.223407914</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="J6" t="n">
-        <v>241422.004215321</v>
+        <v>241387.2662898854</v>
       </c>
       <c r="K6" t="n">
-        <v>417845.2234079141</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="L6" t="n">
-        <v>417845.2234079141</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="M6" t="n">
-        <v>293636.7126998557</v>
+        <v>293601.9747744199</v>
       </c>
       <c r="N6" t="n">
-        <v>417845.2234079139</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="O6" t="n">
-        <v>417845.223407914</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="P6" t="n">
-        <v>417845.2234079142</v>
+        <v>417810.4854824785</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>26.88499137258549</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>32.56634295703006</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>21.87414536972213</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>198.3366372357469</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>268.9547008659938</v>
+        <v>228.8774059060748</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>28.9878097027507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>320.6013132312724</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27904,10 +27904,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>50.16329047799681</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>138.440663779731</v>
+        <v>106.2001086992811</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-4.63134280015893e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31841,28 +31841,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,19 +32789,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>260.171071406825</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33263,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197783</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>266.3926848685833</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>524.5136961554247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,22 +34211,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,13 +34457,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>113.1442306064387</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35185,7 +35185,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,7 +35258,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>559.3511648291915</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>122.329632432466</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753338</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>128.5512458942243</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010482</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>393.1719840720914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,13 +38105,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
